--- a/ddm_tests/LULU.xlsx
+++ b/ddm_tests/LULU.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="20235" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="20235" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="nominal sr" sheetId="11" r:id="rId1"/>
@@ -17,12 +17,12 @@
     <sheet name="SPY" sheetId="3" r:id="rId8"/>
     <sheet name="rf" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -166,6 +166,24 @@
   </si>
   <si>
     <t>Upper 95.0%</t>
+  </si>
+  <si>
+    <t>1 step ahead</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Error^2</t>
+  </si>
+  <si>
+    <t>mr:</t>
+  </si>
+  <si>
+    <t>sr:</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -1262,9 +1280,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1524,18 +1540,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:M61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
     <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>LULU!H1</f>
         <v>adj_return</v>
@@ -1548,8 +1574,32 @@
         <f>LULU!I1</f>
         <v>lagged_adj_return</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>LULU!H2</f>
         <v>9.7239669594312073E-2</v>
@@ -1563,7 +1613,7 @@
         <v>-2.745572615235814E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>LULU!H3</f>
         <v>-2.745572615235814E-2</v>
@@ -1577,7 +1627,7 @@
         <v>-2.9220216022893708E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>LULU!H4</f>
         <v>-2.9220216022893708E-2</v>
@@ -1591,7 +1641,7 @@
         <v>-0.20871738138674012</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>LULU!H5</f>
         <v>-0.20871738138674012</v>
@@ -1605,7 +1655,7 @@
         <v>1.8294638589013035E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>LULU!H6</f>
         <v>1.8294638589013035E-2</v>
@@ -1619,7 +1669,7 @@
         <v>-3.7366031973995573E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>LULU!H7</f>
         <v>-3.7366031973995573E-2</v>
@@ -1633,7 +1683,7 @@
         <v>9.2155910818600084E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>LULU!H8</f>
         <v>9.2155910818600084E-2</v>
@@ -1647,7 +1697,7 @@
         <v>-6.0496512578512185E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>LULU!H9</f>
         <v>-6.0496512578512185E-2</v>
@@ -1661,7 +1711,7 @@
         <v>-5.9356141488103864E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>LULU!H10</f>
         <v>-5.9356141488103864E-3</v>
@@ -1675,7 +1725,7 @@
         <v>-6.4582186891227744E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>LULU!H11</f>
         <v>-6.4582186891227744E-2</v>
@@ -1689,7 +1739,7 @@
         <v>3.3212621775743578E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>LULU!H12</f>
         <v>3.3212621775743578E-2</v>
@@ -1703,7 +1753,7 @@
         <v>0.18730949655297557</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>LULU!H13</f>
         <v>0.18730949655297557</v>
@@ -1717,7 +1767,7 @@
         <v>0.15770911304646429</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>LULU!H14</f>
         <v>0.15770911304646429</v>
@@ -1731,7 +1781,7 @@
         <v>0.15702272955473084</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>LULU!H15</f>
         <v>0.15702272955473084</v>
@@ -1745,7 +1795,7 @@
         <v>-8.5692934334345994E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>LULU!H16</f>
         <v>-8.5692934334345994E-3</v>
@@ -1759,7 +1809,7 @@
         <v>5.2091109441522843E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>LULU!H17</f>
         <v>5.2091109441522843E-2</v>
@@ -1773,7 +1823,7 @@
         <v>3.7951623656053313E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>LULU!H18</f>
         <v>3.7951623656053313E-2</v>
@@ -1787,7 +1837,7 @@
         <v>-4.9654125494071E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>LULU!H19</f>
         <v>-4.9654125494071E-2</v>
@@ -1801,7 +1851,7 @@
         <v>-9.298680051564423E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>LULU!H20</f>
         <v>-9.298680051564423E-2</v>
@@ -1815,7 +1865,7 @@
         <v>-2.8303919007184875E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>LULU!H21</f>
         <v>-2.8303919007184875E-2</v>
@@ -1829,7 +1879,7 @@
         <v>-0.12664004563605258</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>LULU!H22</f>
         <v>-0.12664004563605258</v>
@@ -1843,7 +1893,7 @@
         <v>4.531900128564903E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>LULU!H23</f>
         <v>4.531900128564903E-2</v>
@@ -1857,7 +1907,7 @@
         <v>0.10111626397715612</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>LULU!H24</f>
         <v>0.10111626397715612</v>
@@ -1871,7 +1921,7 @@
         <v>-0.22598679020814483</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>LULU!H25</f>
         <v>-0.22598679020814483</v>
@@ -1885,7 +1935,7 @@
         <v>-0.15332762258566235</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>LULU!H26</f>
         <v>-0.15332762258566235</v>
@@ -1899,7 +1949,7 @@
         <v>9.1186139307346536E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>LULU!H27</f>
         <v>9.1186139307346536E-3</v>
@@ -1913,7 +1963,7 @@
         <v>-5.5244101815018598E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>LULU!H28</f>
         <v>-5.5244101815018598E-2</v>
@@ -1927,7 +1977,7 @@
         <v>3.2326385224527687E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>LULU!H29</f>
         <v>3.2326385224527687E-2</v>
@@ -1941,7 +1991,7 @@
         <v>1.8254937473048738E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>LULU!H30</f>
         <v>1.8254937473048738E-2</v>
@@ -1955,7 +2005,7 @@
         <v>6.21374045801526E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>LULU!H31</f>
         <v>6.21374045801526E-2</v>
@@ -1969,7 +2019,7 @@
         <v>-0.15820586449571683</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>LULU!H32</f>
         <v>-0.15820586449571683</v>
@@ -1982,8 +2032,32 @@
         <f>LULU!I32</f>
         <v>2.206753009592255E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f>TREND(A2:A31,B2:C31,B32:C32,TRUE)</f>
+        <v>-4.0063032242481349E-3</v>
+      </c>
+      <c r="G32">
+        <f>A32-F32</f>
+        <v>-0.15419956127146869</v>
+      </c>
+      <c r="H32">
+        <f>G32^2</f>
+        <v>2.3777504696313428E-2</v>
+      </c>
+      <c r="K32">
+        <f>TREND(A2:A31,B2:B31,B32,TRUE)</f>
+        <v>-7.5454167616017523E-3</v>
+      </c>
+      <c r="L32">
+        <f>A32-K32</f>
+        <v>-0.15066044773411508</v>
+      </c>
+      <c r="M32">
+        <f>L32^2</f>
+        <v>2.269857051144402E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>LULU!H33</f>
         <v>2.206753009592255E-2</v>
@@ -1996,8 +2070,32 @@
         <f>LULU!I33</f>
         <v>0.22101041607090344</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" ref="F33:F59" si="0">TREND(A3:A32,B3:C32,B33:C33,TRUE)</f>
+        <v>4.9340698143755329E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G59" si="1">A33-F33</f>
+        <v>-2.727316804783278E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H59" si="2">G33^2</f>
+        <v>7.4382569536532688E-4</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K59" si="3">TREND(A3:A32,B3:B32,B33,TRUE)</f>
+        <v>-5.2047514834208698E-3</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L59" si="4">A33-K33</f>
+        <v>2.7272281579343419E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M59" si="5">L33^2</f>
+        <v>7.4377734254299434E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>LULU!H34</f>
         <v>0.22101041607090344</v>
@@ -2010,8 +2108,32 @@
         <f>LULU!I34</f>
         <v>-7.0097014015047865E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-1.8884153375046689E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.23989456944595011</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>5.7549404449657782E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-5.6804945488517257E-3</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0.22669091061975516</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>5.1388768957613823E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>LULU!H35</f>
         <v>-7.0097014015047865E-2</v>
@@ -2024,8 +2146,32 @@
         <f>LULU!I35</f>
         <v>-2.8260826086956459E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>1.5854697710150044E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-8.5951711725197916E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>7.3876967484915249E-3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>1.9485273409677761E-2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>-8.9582287424725626E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>8.0249862202461542E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>LULU!H36</f>
         <v>-2.8260826086956459E-2</v>
@@ -2038,8 +2184,32 @@
         <f>LULU!I36</f>
         <v>-9.4844585012019422E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-1.0320876397125107E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-1.7939949689831352E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>3.2184179487368002E-4</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>4.248994267282348E-3</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>-3.2509820354238807E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>1.0568884194648799E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>LULU!H37</f>
         <v>-9.4844585012019422E-2</v>
@@ -2052,8 +2222,32 @@
         <f>LULU!I37</f>
         <v>6.1995041264907069E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>3.3024845329671516E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-0.12786943034169093</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>1.6350591215908549E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>2.0003840962456762E-2</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>-0.11484842597447618</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>1.3190160948814736E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>LULU!H38</f>
         <v>6.1995041264907069E-2</v>
@@ -2066,8 +2260,32 @@
         <f>LULU!I38</f>
         <v>4.2707774125960274E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>5.1135495191290212E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>5.688149174577805E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>3.2355041032250164E-3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>-1.3227009354695998E-3</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>6.331774220037667E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>4.0091364773533608E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>LULU!H39</f>
         <v>4.2707774125960274E-2</v>
@@ -2080,8 +2298,32 @@
         <f>LULU!I39</f>
         <v>-6.8974923749664074E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-1.967238591610232E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>6.2380160042062593E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>3.8912843668733425E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>-5.166676379682926E-3</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>4.78744505056432E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>2.2919630112172803E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>LULU!H40</f>
         <v>-6.8974923749664074E-2</v>
@@ -2094,8 +2336,32 @@
         <f>LULU!I40</f>
         <v>0.13422303622570841</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>9.3952728899410476E-3</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-7.8370196639605122E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>6.1418877213303743E-3</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>-1.1358239848277727E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>-5.7616683901386349E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>3.3196822637922728E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>LULU!H41</f>
         <v>0.13422303622570841</v>
@@ -2108,8 +2374,32 @@
         <f>LULU!I41</f>
         <v>0.15421391643059512</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>2.9366084877686875E-2</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0.10485695134802153</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>1.0994980246001354E-2</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>6.2692317210699721E-3</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.12795380450463845</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>1.6372176087211233E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>LULU!H42</f>
         <v>0.15421391643059512</v>
@@ -2122,8 +2412,32 @@
         <f>LULU!I42</f>
         <v>-5.2825774730407948E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>4.134038282585014E-4</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.15380051260233663</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>2.3654597676741506E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>1.1895560857352078E-2</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>0.14231835557324304</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>2.025451433307204E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>LULU!H43</f>
         <v>-5.2825774730407948E-2</v>
@@ -2136,8 +2450,32 @@
         <f>LULU!I43</f>
         <v>-0.1791023978400661</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-2.6948711154814193E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-2.5877063575593755E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>6.6962241929532105E-4</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>9.6852788792992188E-3</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>-6.2511053609707171E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>3.9076318233956841E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>LULU!H44</f>
         <v>-0.1791023978400661</v>
@@ -2150,8 +2488,32 @@
         <f>LULU!I44</f>
         <v>-2.0231993798651149E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>3.2909171948824853E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-0.21201156978889096</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>4.4948905724349786E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>3.219609814745826E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>-0.21129849598752437</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>4.4647054406589851E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>LULU!H45</f>
         <v>-2.0231993798651149E-2</v>
@@ -2164,8 +2526,32 @@
         <f>LULU!I45</f>
         <v>-7.8951421961002133E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-9.330569521797244E-2</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>7.3073701419321291E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>5.3397658391201187E-3</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>-9.1737983546191171E-2</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>7.1505989747540022E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>5.1131065697752991E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>LULU!H46</f>
         <v>-7.8951421961002133E-3</v>
@@ -2178,8 +2564,32 @@
         <f>LULU!I46</f>
         <v>0.11504038115668669</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-2.5135390337123906E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1.7240248141023692E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>2.9722615596407086E-4</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>-2.950515702149312E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>2.1610014825392907E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>4.6699274075370122E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>LULU!H47</f>
         <v>0.11504038115668669</v>
@@ -2192,8 +2602,32 @@
         <f>LULU!I47</f>
         <v>6.1618817335358456E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>3.2560553418359284E-3</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.11178432581485076</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1.249573549788071E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>-3.9840478440706165E-4</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>0.11543878594109375</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>1.3326113299553664E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>LULU!H48</f>
         <v>6.1618817335358456E-2</v>
@@ -2206,8 +2640,32 @@
         <f>LULU!I48</f>
         <v>0.35297901843120449</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>3.8207792795127857E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>2.3411024540230599E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>5.4807607002327937E-4</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>1.4653768777108275E-2</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>4.6965048558250178E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>2.2057157860787971E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>LULU!H49</f>
         <v>0.35297901843120449</v>
@@ -2220,8 +2678,32 @@
         <f>LULU!I49</f>
         <v>-6.1167020902072045E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>1.3401476242319871E-2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.33957754218888464</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.11531290715904373</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>1.9063100698840346E-2</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>0.33391591773236418</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>0.111499840115047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>LULU!H50</f>
         <v>-6.1167020902072045E-2</v>
@@ -2234,8 +2716,32 @@
         <f>LULU!I50</f>
         <v>-0.12004247521246458</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-1.1294257630019044E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-4.9872763272052999E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>2.4872925163902386E-3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>-6.8153038644352161E-3</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>-5.4351717037636832E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>2.9541091449393417E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>LULU!H51</f>
         <v>-0.12004247521246458</v>
@@ -2248,8 +2754,32 @@
         <f>LULU!I51</f>
         <v>0.1599918085847567</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-1.9470807343419688E-2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-0.1005716678690449</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>1.0114660377961477E-2</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>-2.630161442123595E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>-9.3740860791228633E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>8.7873489818805061E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>LULU!H52</f>
         <v>0.1599918085847567</v>
@@ -2262,8 +2792,32 @@
         <f>LULU!I52</f>
         <v>-0.11035996711127349</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.14349493002349495</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>1.6496878561261752E-2</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>2.7214700226501764E-4</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>0.1435051217679538</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>1.6486686816802903E-2</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>2.7181084219534264E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>LULU!H53</f>
         <v>-0.11035996711127349</v>
@@ -2276,8 +2830,32 @@
         <f>LULU!I53</f>
         <v>-9.5969621804267935E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-0.12700388293026532</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>1.6643915818991828E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>2.770199337896864E-4</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>-0.12613698011887742</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>1.5777013007603924E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>2.4891413944210341E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>LULU!H54</f>
         <v>-9.5969621804267935E-2</v>
@@ -2290,8 +2868,32 @@
         <f>LULU!I54</f>
         <v>8.2811679484886325E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>-0.10408314446533372</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>8.1135226610657835E-3</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>6.5829249971627988E-5</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>-0.10340699224511372</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>7.4373704408457891E-3</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>5.531447907436669E-5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>LULU!H55</f>
         <v>8.2811679484886325E-2</v>
@@ -2304,8 +2906,32 @@
         <f>LULU!I55</f>
         <v>0.23149774310582627</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>-4.5809324957020087E-2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.12862100444190641</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>1.6543362783644908E-2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>-5.0299631100797812E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>0.13311131058568415</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>1.7718621005838469E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>LULU!H56</f>
         <v>0.23149774310582627</v>
@@ -2318,8 +2944,32 @@
         <f>LULU!I56</f>
         <v>-9.2453769417140674E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>-2.8323192017954663E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.25982093512378091</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>6.7506918328595969E-2</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>-2.7085118473434595E-2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>0.25858286157926086</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>6.6865096302519175E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <f>LULU!H57</f>
         <v>-9.2453769417140674E-2</v>
@@ -2332,8 +2982,32 @@
         <f>LULU!I57</f>
         <v>0.12352610337895098</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-9.1438743172738181E-3</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>-8.330989509986686E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>6.9405386215508199E-3</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>-3.0886860456111713E-3</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>-8.93650833715295E-2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>7.9861181260004188E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <f>LULU!H58</f>
         <v>0.12352610337895098</v>
@@ -2346,8 +3020,32 @@
         <f>LULU!I58</f>
         <v>0.14769955652530253</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>2.6573216087319738E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>9.6952887291631235E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>9.3998623541837502E-3</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>3.7680057841329467E-2</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>8.5846045537621513E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>7.3695435344473866E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>LULU!H59</f>
         <v>0.14769955652530253</v>
@@ -2359,6 +3057,43 @@
       <c r="C59">
         <f>LULU!I59</f>
         <v>0.12973203261502619</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>5.8330897287247252E-3</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.1418664667965778</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>2.012609440134451E-2</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>1.1185774668130206E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>0.13651378185717233</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>1.8636012636947634E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61">
+        <f>AVERAGE(H32:H59)</f>
+        <v>1.6692681541077035E-2</v>
+      </c>
+      <c r="M61">
+        <f>AVERAGE(M32:M59)</f>
+        <v>1.6264641732401844E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +3105,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2604,9 +3339,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2866,9 +3599,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2877,7 +3612,7 @@
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>LULU!K1</f>
         <v>real_ret</v>
@@ -2890,8 +3625,32 @@
         <f>LULU!L1</f>
         <v>lagged_real_ret</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>LULU!K2</f>
         <v>7.1139669594312074E-2</v>
@@ -2905,7 +3664,7 @@
         <v>-5.435572615235814E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>LULU!K3</f>
         <v>-5.435572615235814E-2</v>
@@ -2919,7 +3678,7 @@
         <v>-5.4220216022893709E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>LULU!K4</f>
         <v>-5.4220216022893709E-2</v>
@@ -2933,7 +3692,7 @@
         <v>-0.23491738138674012</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>LULU!K5</f>
         <v>-0.23491738138674012</v>
@@ -2947,7 +3706,7 @@
         <v>-7.2053614109869636E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>LULU!K6</f>
         <v>-7.2053614109869636E-3</v>
@@ -2961,7 +3720,7 @@
         <v>-6.5066031973995575E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>LULU!K7</f>
         <v>-6.5066031973995575E-2</v>
@@ -2975,7 +3734,7 @@
         <v>6.3655910818600087E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>LULU!K8</f>
         <v>6.3655910818600087E-2</v>
@@ -2989,7 +3748,7 @@
         <v>-8.7396512578512192E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>LULU!K9</f>
         <v>-8.7396512578512192E-2</v>
@@ -3003,7 +3762,7 @@
         <v>-2.9235614148810388E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>LULU!K10</f>
         <v>-2.9235614148810388E-2</v>
@@ -3017,7 +3776,7 @@
         <v>-8.8682186891227741E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>LULU!K11</f>
         <v>-8.8682186891227741E-2</v>
@@ -3031,7 +3790,7 @@
         <v>9.812621775743581E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12">
         <f>LULU!K12</f>
         <v>9.812621775743581E-3</v>
@@ -3045,7 +3804,7 @@
         <v>0.16530949655297558</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13">
         <f>LULU!K13</f>
         <v>0.16530949655297558</v>
@@ -3059,7 +3818,7 @@
         <v>0.13220911304646429</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14">
         <f>LULU!K14</f>
         <v>0.13220911304646429</v>
@@ -3073,7 +3832,7 @@
         <v>0.12942272955473083</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15">
         <f>LULU!K15</f>
         <v>0.12942272955473083</v>
@@ -3087,7 +3846,7 @@
         <v>-3.6269293433434602E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16">
         <f>LULU!K16</f>
         <v>-3.6269293433434602E-2</v>
@@ -3101,7 +3860,7 @@
         <v>2.1991109441522844E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <f>LULU!K17</f>
         <v>2.1991109441522844E-2</v>
@@ -3115,7 +3874,7 @@
         <v>8.5516236560533136E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <f>LULU!K18</f>
         <v>8.5516236560533136E-3</v>
@@ -3129,7 +3888,7 @@
         <v>-8.0354125494071005E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <f>LULU!K19</f>
         <v>-8.0354125494071005E-2</v>
@@ -3143,7 +3902,7 @@
         <v>-0.12448680051564423</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <f>LULU!K20</f>
         <v>-0.12448680051564423</v>
@@ -3157,7 +3916,7 @@
         <v>-5.950391900718488E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <f>LULU!K21</f>
         <v>-5.950391900718488E-2</v>
@@ -3171,7 +3930,7 @@
         <v>-0.15934004563605259</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <f>LULU!K22</f>
         <v>-0.15934004563605259</v>
@@ -3185,7 +3944,7 @@
         <v>1.1819001285649028E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <f>LULU!K23</f>
         <v>1.1819001285649028E-2</v>
@@ -3199,7 +3958,7 @@
         <v>6.7316263977156121E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <f>LULU!K24</f>
         <v>6.7316263977156121E-2</v>
@@ -3213,7 +3972,7 @@
         <v>-0.26118679020814484</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <f>LULU!K25</f>
         <v>-0.26118679020814484</v>
@@ -3227,7 +3986,7 @@
         <v>-0.18962762258566235</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <f>LULU!K26</f>
         <v>-0.18962762258566235</v>
@@ -3241,7 +4000,7 @@
         <v>-2.588138606926535E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <f>LULU!K27</f>
         <v>-2.588138606926535E-2</v>
@@ -3255,7 +4014,7 @@
         <v>-8.9044101815018595E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <f>LULU!K28</f>
         <v>-8.9044101815018595E-2</v>
@@ -3269,7 +4028,7 @@
         <v>-2.9736147754723108E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <f>LULU!K29</f>
         <v>-2.9736147754723108E-3</v>
@@ -3283,7 +4042,7 @@
         <v>-1.6645062526951263E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <f>LULU!K30</f>
         <v>-1.6645062526951263E-2</v>
@@ -3297,7 +4056,7 @@
         <v>2.9037404580152602E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <f>LULU!K31</f>
         <v>2.9037404580152602E-2</v>
@@ -3311,7 +4070,7 @@
         <v>-0.18890586449571684</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <f>LULU!K32</f>
         <v>-0.18890586449571684</v>
@@ -3324,8 +4083,32 @@
         <f>LULU!L32</f>
         <v>-5.2324699040774518E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <f>TREND(A2:A31,B2:C31,B32:C32,TRUE)</f>
+        <v>-3.5527486711338027E-2</v>
+      </c>
+      <c r="G32">
+        <f>A32-F32</f>
+        <v>-0.15337837778437879</v>
+      </c>
+      <c r="H32">
+        <f>G32^2</f>
+        <v>2.3524926771767624E-2</v>
+      </c>
+      <c r="K32">
+        <f>TREND(A2:A31,B2:B31,B32,TRUE)</f>
+        <v>-4.031464150664852E-2</v>
+      </c>
+      <c r="L32">
+        <f>A32-K32</f>
+        <v>-0.14859122298906832</v>
+      </c>
+      <c r="M32">
+        <f>L32^2</f>
+        <v>2.2079351549387026E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <f>LULU!K33</f>
         <v>-5.2324699040774518E-3</v>
@@ -3338,8 +4121,32 @@
         <f>LULU!L33</f>
         <v>0.19551041607090344</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <f t="shared" ref="F33:F59" si="0">TREND(A3:A32,B3:C32,B33:C33,TRUE)</f>
+        <v>2.6948345082376795E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G59" si="1">A33-F33</f>
+        <v>-3.2180814986454247E-2</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ref="H33:H59" si="2">G33^2</f>
+        <v>1.0356048531923983E-3</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K59" si="3">TREND(A3:A32,B3:B32,B33,TRUE)</f>
+        <v>-3.1881284636866188E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L59" si="4">A33-K33</f>
+        <v>2.6648814732788736E-2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M59" si="5">L33^2</f>
+        <v>7.1015932666249797E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <f>LULU!K34</f>
         <v>0.19551041607090344</v>
@@ -3352,8 +4159,32 @@
         <f>LULU!L34</f>
         <v>-9.7897014015047856E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-4.5197033616371653E-2</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.24070744968727509</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>5.7940076334952066E-2</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="3"/>
+        <v>-3.1909449596048384E-2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0.22741986566695183</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>5.1719795299974412E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <f>LULU!K35</f>
         <v>-9.7897014015047856E-2</v>
@@ -3366,8 +4197,32 @@
         <f>LULU!L35</f>
         <v>-5.6060826086956457E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-6.6624018980473813E-3</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>-9.1234612117000471E-2</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="2"/>
+        <v>8.3237544481395299E-3</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="3"/>
+        <v>-2.2236371002863613E-3</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="4"/>
+        <v>-9.5673376914761493E-2</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>9.1533950502740175E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <f>LULU!K36</f>
         <v>-5.6060826086956457E-2</v>
@@ -3380,8 +4235,32 @@
         <f>LULU!L36</f>
         <v>-0.12164458501201943</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-3.9741662302814659E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>-1.6319163784141798E-2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="2"/>
+        <v>2.6631510661364525E-4</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="3"/>
+        <v>-2.3978308526759591E-2</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="4"/>
+        <v>-3.2082517560196866E-2</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>1.0292879330003402E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <f>LULU!K37</f>
         <v>-0.12164458501201943</v>
@@ -3394,8 +4273,32 @@
         <f>LULU!L37</f>
         <v>3.729504126490707E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>1.6575912555660197E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>-0.13822049756767962</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="2"/>
+        <v>1.910490594785693E-2</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="3"/>
+        <v>3.1958223287753499E-3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="4"/>
+        <v>-0.12484040734079478</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="5"/>
+        <v>1.5585127305015567E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <f>LULU!K38</f>
         <v>3.729504126490707E-2</v>
@@ -3408,8 +4311,32 @@
         <f>LULU!L38</f>
         <v>1.8807774125960273E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-2.1378059479228294E-2</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>5.8673100744135363E-2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>3.4425327509314575E-3</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="3"/>
+        <v>-2.9728732969560821E-2</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="4"/>
+        <v>6.7023774234467898E-2</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="5"/>
+        <v>4.4921863126329226E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <f>LULU!K39</f>
         <v>1.8807774125960273E-2</v>
@@ -3422,8 +4349,32 @@
         <f>LULU!L39</f>
         <v>-9.4074923749664072E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-4.7098091194405479E-2</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>6.5905865320365756E-2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>4.34358308362619E-3</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="3"/>
+        <v>-3.3294031736985016E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="4"/>
+        <v>5.2101805862945286E-2</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="5"/>
+        <v>2.7145981741800397E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>LULU!K40</f>
         <v>-9.4074923749664072E-2</v>
@@ -3436,8 +4387,32 @@
         <f>LULU!L40</f>
         <v>0.10932303622570841</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-2.2344024420930517E-2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>-7.1730899328733555E-2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>5.1453219185089083E-3</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="3"/>
+        <v>-4.7676652757146942E-2</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="4"/>
+        <v>-4.6398270992517129E-2</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="5"/>
+        <v>2.1527995510950567E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>LULU!K41</f>
         <v>0.10932303622570841</v>
@@ -3450,8 +4425,32 @@
         <f>LULU!L41</f>
         <v>0.13021391643059513</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>9.6795124351052152E-3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>9.9643523790603192E-2</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>9.9288318334085045E-3</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="3"/>
+        <v>-1.6546975269156463E-2</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="4"/>
+        <v>0.12587001149486488</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="5"/>
+        <v>1.5843259793717417E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <f>LULU!K42</f>
         <v>0.13021391643059513</v>
@@ -3464,8 +4463,32 @@
         <f>LULU!L42</f>
         <v>-7.5025774730407946E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-2.1166837158869037E-2</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.15138075358946418</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>2.2916132557314072E-2</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="3"/>
+        <v>-9.9153601619513324E-3</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="4"/>
+        <v>0.14012927659254645</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="5"/>
+        <v>1.9636214158350387E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <f>LULU!K43</f>
         <v>-7.5025774730407946E-2</v>
@@ -3478,8 +4501,32 @@
         <f>LULU!L43</f>
         <v>-0.20220239784006611</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-5.2814318742555572E-2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>-2.2211455987852374E-2</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>4.9334877710030306E-4</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>-1.3766917849386436E-2</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="4"/>
+        <v>-6.1258856881021506E-2</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="5"/>
+        <v>3.7526475463694762E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <f>LULU!K44</f>
         <v>-0.20220239784006611</v>
@@ -3492,8 +4539,32 @@
         <f>LULU!L44</f>
         <v>-4.5531993798651152E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>2.1060785122176191E-2</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>-0.22326318296224229</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>4.9846448866431678E-2</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="3"/>
+        <v>1.983042730914782E-2</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>-0.22203282514921394</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="5"/>
+        <v>4.9298575443741409E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <f>LULU!K45</f>
         <v>-4.5531993798651152E-2</v>
@@ -3506,8 +4577,32 @@
         <f>LULU!L45</f>
         <v>-3.6095142196100216E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-0.13048313309205686</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>8.4951139293405711E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>7.2166960672476197E-3</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="3"/>
+        <v>-0.12940317524802264</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="4"/>
+        <v>8.3871181449371487E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>7.0343750777133963E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <f>LULU!K46</f>
         <v>-3.6095142196100216E-2</v>
@@ -3520,8 +4615,32 @@
         <f>LULU!L46</f>
         <v>8.5640381156686693E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-5.4731091724171468E-2</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>1.8635949528071252E-2</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>3.4729861481281915E-4</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="3"/>
+        <v>-6.0812573661662067E-2</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="4"/>
+        <v>2.4717431465561851E-2</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="5"/>
+        <v>6.1095141825474712E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <f>LULU!K47</f>
         <v>8.5640381156686693E-2</v>
@@ -3534,8 +4653,32 @@
         <f>LULU!L47</f>
         <v>3.4118817335358459E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-2.2336927837833306E-2</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.10797730899452</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>1.165909925769805E-2</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="3"/>
+        <v>-2.7172794636356083E-2</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="4"/>
+        <v>0.11281317579304277</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="5"/>
+        <v>1.2726812632511972E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <f>LULU!K48</f>
         <v>3.4118817335358459E-2</v>
@@ -3548,8 +4691,32 @@
         <f>LULU!L48</f>
         <v>0.32597901843120447</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>1.9309561674915977E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1.4809255660442482E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>2.1931405321634769E-4</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="3"/>
+        <v>-8.5933602663004621E-3</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="4"/>
+        <v>4.2712177601658921E-2</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="5"/>
+        <v>1.8243301154756541E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <f>LULU!K49</f>
         <v>0.32597901843120447</v>
@@ -3562,8 +4729,32 @@
         <f>LULU!L49</f>
         <v>-8.7867020902072046E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-9.2539551996487501E-3</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0.33523297363085325</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>0.11238114660938435</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="3"/>
+        <v>-3.1101233546123146E-3</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="4"/>
+        <v>0.32908914178581677</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="5"/>
+        <v>0.10829966324132542</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <f>LULU!K50</f>
         <v>-8.7867020902072046E-2</v>
@@ -3576,8 +4767,32 @@
         <f>LULU!L50</f>
         <v>-0.14724247521246459</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-3.8282353816587976E-2</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>-4.958466708548407E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>2.4586392099782872E-3</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="3"/>
+        <v>-3.3185703476315748E-2</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="4"/>
+        <v>-5.4681317425756298E-2</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="5"/>
+        <v>2.9900464754163193E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <f>LULU!K51</f>
         <v>-0.14724247521246459</v>
@@ -3590,8 +4805,32 @@
         <f>LULU!L51</f>
         <v>0.1312918085847567</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-4.7864867789255375E-2</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>-9.937760742320921E-2</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>9.8759088571614868E-3</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="3"/>
+        <v>-5.5589743593313493E-2</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="4"/>
+        <v>-9.1652731619151093E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="5"/>
+        <v>8.4002232132521382E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <f>LULU!K52</f>
         <v>0.1312918085847567</v>
@@ -3604,8 +4843,32 @@
         <f>LULU!L52</f>
         <v>-0.13865996711127349</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0.12740616820370487</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>3.8856403810518247E-3</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>1.5098201170860571E-5</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="3"/>
+        <v>0.12802399947969778</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>3.2678091050589164E-3</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="5"/>
+        <v>1.0678576347105956E-5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <f>LULU!K53</f>
         <v>-0.13865996711127349</v>
@@ -3618,8 +4881,32 @@
         <f>LULU!L53</f>
         <v>-0.12836962180426795</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-0.16354661271502824</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>2.4886645603754753E-2</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>6.193451294068858E-4</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="3"/>
+        <v>-0.1619199138319298</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="4"/>
+        <v>2.3259946720656316E-2</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>5.4102512144777056E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <f>LULU!K54</f>
         <v>-0.12836962180426795</v>
@@ -3632,8 +4919,32 @@
         <f>LULU!L54</f>
         <v>4.3311679484886324E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>-0.14404776051545543</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>1.5678138711187478E-2</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>2.4580403344723534E-4</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="3"/>
+        <v>-0.14370353102634373</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="4"/>
+        <v>1.5333909222075781E-2</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="5"/>
+        <v>2.3512877203086068E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <f>LULU!K55</f>
         <v>4.3311679484886324E-2</v>
@@ -3646,8 +4957,32 @@
         <f>LULU!L55</f>
         <v>0.19239774310582627</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>-9.2249578006049271E-2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.13556125749093559</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>1.8376854532523742E-2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="3"/>
+        <v>-9.7990624871511042E-2</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="4"/>
+        <v>0.14130230435639737</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="5"/>
+        <v>1.9966341216427957E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <f>LULU!K56</f>
         <v>0.19239774310582627</v>
@@ -3660,8 +4995,32 @@
         <f>LULU!L56</f>
         <v>-0.13255376941714067</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>-7.0872201245579775E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.26326994435140605</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>6.9311063598792438E-2</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="3"/>
+        <v>-6.875788012117294E-2</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="4"/>
+        <v>0.2611556232269992</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="5"/>
+        <v>6.8202259543082358E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <f>LULU!K57</f>
         <v>-0.13255376941714067</v>
@@ -3674,8 +5033,32 @@
         <f>LULU!L57</f>
         <v>8.0726103378950975E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-4.6876169251128696E-2</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>-8.5677600166011975E-2</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>7.3406511702070153E-3</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="3"/>
+        <v>-4.1262992282554936E-2</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="4"/>
+        <v>-9.1290777134585735E-2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="5"/>
+        <v>8.3340059898366018E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <f>LULU!K58</f>
         <v>8.0726103378950975E-2</v>
@@ -3688,8 +5071,32 @@
         <f>LULU!L58</f>
         <v>0.10499955652530255</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-1.6813774761462133E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>9.7539878140413108E-2</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>9.5140278276466383E-3</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="3"/>
+        <v>-6.6857718284304927E-3</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="4"/>
+        <v>8.7411875207381473E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="5"/>
+        <v>7.6408359272708316E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <f>LULU!K59</f>
         <v>0.10499955652530255</v>
@@ -3701,6 +5108,43 @@
       <c r="C59">
         <f>LULU!L59</f>
         <v>8.5532032615026204E-2</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-3.7399378649598969E-2</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0.14239893517490151</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>2.0277456738945803E-2</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="3"/>
+        <v>-3.2324525990181145E-2</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="4"/>
+        <v>0.1373240825154837</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="5"/>
+        <v>1.8857903638719375E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61">
+        <f>AVERAGE(H32:H59)</f>
+        <v>1.7006078112552961E-2</v>
+      </c>
+      <c r="M61">
+        <f>AVERAGE(M32:M59)</f>
+        <v>1.6565784942982605E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3716,14 +5160,24 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -3844,7 +5298,7 @@
         <v>47.82</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H61" si="0">G3/G4-1</f>
+        <f t="shared" ref="H3:H60" si="0">G3/G4-1</f>
         <v>-2.745572615235814E-2</v>
       </c>
       <c r="I3">
@@ -8476,9 +9930,10 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.1640625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="24.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="24.1640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
